--- a/SampleALM/zero_curve.xlsx
+++ b/SampleALM/zero_curve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Rate</t>
@@ -562,6 +557,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>40Y</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>0.0225</v>
       </c>
     </row>
